--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,173 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52494600</v>
+        <v>93736000</v>
       </c>
       <c r="E8" s="3">
-        <v>13997300</v>
+        <v>40605000</v>
       </c>
       <c r="F8" s="3">
-        <v>20709500</v>
+        <v>35845000</v>
       </c>
       <c r="G8" s="3">
-        <v>56193300</v>
+        <v>16019000</v>
       </c>
       <c r="H8" s="3">
-        <v>55492600</v>
+        <v>43466000</v>
       </c>
       <c r="I8" s="3">
-        <v>46930300</v>
+        <v>42924000</v>
       </c>
       <c r="J8" s="3">
+        <v>36301000</v>
+      </c>
+      <c r="K8" s="3">
         <v>45947800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20902900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33287100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>4177000</v>
       </c>
       <c r="E9" s="3">
-        <v>2314100</v>
+        <v>1630000</v>
       </c>
       <c r="F9" s="3">
-        <v>2130600</v>
+        <v>4565000</v>
       </c>
       <c r="G9" s="3">
-        <v>2316700</v>
+        <v>3186000</v>
       </c>
       <c r="H9" s="3">
-        <v>2482200</v>
+        <v>1792000</v>
       </c>
       <c r="I9" s="3">
-        <v>2568800</v>
+        <v>1920000</v>
       </c>
       <c r="J9" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2197800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2210800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2080500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>89559000</v>
       </c>
       <c r="E10" s="3">
-        <v>11683100</v>
+        <v>38975000</v>
       </c>
       <c r="F10" s="3">
-        <v>18579000</v>
+        <v>31280000</v>
       </c>
       <c r="G10" s="3">
-        <v>53876600</v>
+        <v>12833000</v>
       </c>
       <c r="H10" s="3">
-        <v>53010400</v>
+        <v>41674000</v>
       </c>
       <c r="I10" s="3">
-        <v>44361500</v>
+        <v>41004000</v>
       </c>
       <c r="J10" s="3">
+        <v>34314000</v>
+      </c>
+      <c r="K10" s="3">
         <v>43750000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18692100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31206600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,66 +919,72 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16800</v>
+        <v>142000</v>
       </c>
       <c r="E14" s="3">
-        <v>126700</v>
+        <v>-13000</v>
       </c>
       <c r="F14" s="3">
-        <v>736900</v>
+        <v>182000</v>
       </c>
       <c r="G14" s="3">
-        <v>-209400</v>
+        <v>570000</v>
       </c>
       <c r="H14" s="3">
-        <v>-85300</v>
+        <v>-162000</v>
       </c>
       <c r="I14" s="3">
-        <v>307700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>-66000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,8 +995,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51181100</v>
+        <v>91695000</v>
       </c>
       <c r="E17" s="3">
-        <v>12641100</v>
+        <v>39589000</v>
       </c>
       <c r="F17" s="3">
-        <v>18504000</v>
+        <v>32167000</v>
       </c>
       <c r="G17" s="3">
-        <v>54242400</v>
+        <v>14313000</v>
       </c>
       <c r="H17" s="3">
-        <v>53023300</v>
+        <v>41957000</v>
       </c>
       <c r="I17" s="3">
-        <v>44724800</v>
+        <v>41014000</v>
       </c>
       <c r="J17" s="3">
+        <v>34595000</v>
+      </c>
+      <c r="K17" s="3">
         <v>44982000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19189000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30714100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1313500</v>
+        <v>2041000</v>
       </c>
       <c r="E18" s="3">
-        <v>1356200</v>
+        <v>1016000</v>
       </c>
       <c r="F18" s="3">
-        <v>2205500</v>
+        <v>3678000</v>
       </c>
       <c r="G18" s="3">
-        <v>1950900</v>
+        <v>1706000</v>
       </c>
       <c r="H18" s="3">
-        <v>2469300</v>
+        <v>1509000</v>
       </c>
       <c r="I18" s="3">
-        <v>2205500</v>
+        <v>1910000</v>
       </c>
       <c r="J18" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="K18" s="3">
         <v>965700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1713900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2573000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,183 +1102,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>137000</v>
+        <v>397000</v>
       </c>
       <c r="E20" s="3">
-        <v>203000</v>
+        <v>106000</v>
       </c>
       <c r="F20" s="3">
-        <v>106000</v>
+        <v>319000</v>
       </c>
       <c r="G20" s="3">
-        <v>235300</v>
+        <v>82000</v>
       </c>
       <c r="H20" s="3">
-        <v>155100</v>
+        <v>182000</v>
       </c>
       <c r="I20" s="3">
-        <v>124100</v>
+        <v>120000</v>
       </c>
       <c r="J20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K20" s="3">
         <v>111200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>151300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1557800</v>
+        <v>2665000</v>
       </c>
       <c r="E21" s="3">
-        <v>1560400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2355500</v>
+        <v>1205000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>2181000</v>
+        <v>1822000</v>
       </c>
       <c r="H21" s="3">
-        <v>2702000</v>
+        <v>1687000</v>
       </c>
       <c r="I21" s="3">
-        <v>2341300</v>
+        <v>2090000</v>
       </c>
       <c r="J21" s="3">
+        <v>1811000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1173900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1889900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2745500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>292200</v>
+        <v>516000</v>
       </c>
       <c r="E22" s="3">
-        <v>285700</v>
+        <v>226000</v>
       </c>
       <c r="F22" s="3">
-        <v>244300</v>
+        <v>547000</v>
       </c>
       <c r="G22" s="3">
-        <v>270200</v>
+        <v>189000</v>
       </c>
       <c r="H22" s="3">
-        <v>279200</v>
+        <v>209000</v>
       </c>
       <c r="I22" s="3">
-        <v>246900</v>
+        <v>216000</v>
       </c>
       <c r="J22" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K22" s="3">
         <v>218500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>194900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1158400</v>
+        <v>1922000</v>
       </c>
       <c r="E23" s="3">
-        <v>1273400</v>
+        <v>896000</v>
       </c>
       <c r="F23" s="3">
-        <v>2067200</v>
+        <v>3450000</v>
       </c>
       <c r="G23" s="3">
-        <v>1915900</v>
+        <v>1599000</v>
       </c>
       <c r="H23" s="3">
-        <v>2345200</v>
+        <v>1482000</v>
       </c>
       <c r="I23" s="3">
-        <v>2082700</v>
+        <v>1814000</v>
       </c>
       <c r="J23" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="K23" s="3">
         <v>858400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1651300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2478200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1300</v>
+        <v>-31000</v>
       </c>
       <c r="E24" s="3">
-        <v>129300</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>421500</v>
+        <v>569000</v>
       </c>
       <c r="G24" s="3">
-        <v>196500</v>
+        <v>326000</v>
       </c>
       <c r="H24" s="3">
-        <v>399500</v>
+        <v>152000</v>
       </c>
       <c r="I24" s="3">
-        <v>487400</v>
+        <v>309000</v>
       </c>
       <c r="J24" s="3">
+        <v>377000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-29700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>163000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>584700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1157100</v>
+        <v>1953000</v>
       </c>
       <c r="E26" s="3">
-        <v>1144100</v>
+        <v>895000</v>
       </c>
       <c r="F26" s="3">
-        <v>1645700</v>
+        <v>2881000</v>
       </c>
       <c r="G26" s="3">
-        <v>1719400</v>
+        <v>1273000</v>
       </c>
       <c r="H26" s="3">
-        <v>1945700</v>
+        <v>1330000</v>
       </c>
       <c r="I26" s="3">
-        <v>1595300</v>
+        <v>1505000</v>
       </c>
       <c r="J26" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K26" s="3">
         <v>888200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1488200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1893500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1157100</v>
+        <v>1944000</v>
       </c>
       <c r="E27" s="3">
-        <v>1141600</v>
+        <v>895000</v>
       </c>
       <c r="F27" s="3">
-        <v>1644500</v>
+        <v>2877000</v>
       </c>
       <c r="G27" s="3">
-        <v>1718100</v>
+        <v>1272000</v>
       </c>
       <c r="H27" s="3">
-        <v>1945700</v>
+        <v>1329000</v>
       </c>
       <c r="I27" s="3">
-        <v>1595300</v>
+        <v>1505000</v>
       </c>
       <c r="J27" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K27" s="3">
         <v>888200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1488200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1893500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,25 +1442,28 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>833900</v>
+        <v>-1161000</v>
       </c>
       <c r="E29" s="3">
-        <v>998000</v>
+        <v>645000</v>
       </c>
       <c r="F29" s="3">
-        <v>107300</v>
+        <v>1142000</v>
       </c>
       <c r="G29" s="3">
-        <v>-575300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>83000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-445000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1422,8 +1480,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-137000</v>
+        <v>-397000</v>
       </c>
       <c r="E32" s="3">
-        <v>-203000</v>
+        <v>-106000</v>
       </c>
       <c r="F32" s="3">
-        <v>-106000</v>
+        <v>-319000</v>
       </c>
       <c r="G32" s="3">
-        <v>-235300</v>
+        <v>-82000</v>
       </c>
       <c r="H32" s="3">
-        <v>-155100</v>
+        <v>-182000</v>
       </c>
       <c r="I32" s="3">
-        <v>-124100</v>
+        <v>-120000</v>
       </c>
       <c r="J32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-111200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-151300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1990900</v>
+        <v>783000</v>
       </c>
       <c r="E33" s="3">
-        <v>2139600</v>
+        <v>1540000</v>
       </c>
       <c r="F33" s="3">
-        <v>1751800</v>
+        <v>4019000</v>
       </c>
       <c r="G33" s="3">
-        <v>1142800</v>
+        <v>1355000</v>
       </c>
       <c r="H33" s="3">
-        <v>1945700</v>
+        <v>884000</v>
       </c>
       <c r="I33" s="3">
-        <v>1595300</v>
+        <v>1505000</v>
       </c>
       <c r="J33" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K33" s="3">
         <v>888200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1488200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1893500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1990900</v>
+        <v>783000</v>
       </c>
       <c r="E35" s="3">
-        <v>2139600</v>
+        <v>1540000</v>
       </c>
       <c r="F35" s="3">
-        <v>1751800</v>
+        <v>4019000</v>
       </c>
       <c r="G35" s="3">
-        <v>1142800</v>
+        <v>1355000</v>
       </c>
       <c r="H35" s="3">
-        <v>1945700</v>
+        <v>884000</v>
       </c>
       <c r="I35" s="3">
-        <v>1595300</v>
+        <v>1505000</v>
       </c>
       <c r="J35" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K35" s="3">
         <v>888200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1488200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1893500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,43 +1785,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6215800</v>
+        <v>6609000</v>
       </c>
       <c r="E41" s="3">
-        <v>15008200</v>
+        <v>4808000</v>
       </c>
       <c r="F41" s="3">
-        <v>10745800</v>
+        <v>27051000</v>
       </c>
       <c r="G41" s="3">
-        <v>26373300</v>
+        <v>8312000</v>
       </c>
       <c r="H41" s="3">
-        <v>24594400</v>
+        <v>20400000</v>
       </c>
       <c r="I41" s="3">
-        <v>12725100</v>
+        <v>19024000</v>
       </c>
       <c r="J41" s="3">
+        <v>9843000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11027700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9676700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10926700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,43 +1859,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600500</v>
+        <v>2054000</v>
       </c>
       <c r="E43" s="3">
-        <v>3597900</v>
+        <v>1238000</v>
       </c>
       <c r="F43" s="3">
-        <v>4033600</v>
+        <v>7990000</v>
       </c>
       <c r="G43" s="3">
-        <v>7344500</v>
+        <v>3120000</v>
       </c>
       <c r="H43" s="3">
-        <v>8545500</v>
+        <v>5681000</v>
       </c>
       <c r="I43" s="3">
-        <v>3713000</v>
+        <v>6610000</v>
       </c>
       <c r="J43" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4531300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,8 +1935,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1877,8 +1973,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1912,113 +2011,125 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>350668200</v>
+        <v>379715000</v>
       </c>
       <c r="E47" s="3">
-        <v>500847500</v>
+        <v>271245000</v>
       </c>
       <c r="F47" s="3">
-        <v>523118800</v>
+        <v>913733000</v>
       </c>
       <c r="G47" s="3">
-        <v>1037455500</v>
+        <v>404637000</v>
       </c>
       <c r="H47" s="3">
-        <v>1030224800</v>
+        <v>802481000</v>
       </c>
       <c r="I47" s="3">
-        <v>502102800</v>
+        <v>796888000</v>
       </c>
       <c r="J47" s="3">
+        <v>388381000</v>
+      </c>
+      <c r="K47" s="3">
         <v>476271200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>424114700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>434640800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1029100</v>
+        <v>1090000</v>
       </c>
       <c r="E48" s="3">
-        <v>24196200</v>
+        <v>796000</v>
       </c>
       <c r="F48" s="3">
-        <v>23152900</v>
+        <v>41931000</v>
       </c>
       <c r="G48" s="3">
-        <v>42793300</v>
+        <v>17909000</v>
       </c>
       <c r="H48" s="3">
-        <v>39447500</v>
+        <v>33101000</v>
       </c>
       <c r="I48" s="3">
-        <v>19895100</v>
+        <v>30513000</v>
       </c>
       <c r="J48" s="3">
+        <v>15389000</v>
+      </c>
+      <c r="K48" s="3">
         <v>19591200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19067700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>659300</v>
+        <v>1036000</v>
       </c>
       <c r="E49" s="3">
-        <v>2580400</v>
+        <v>568000</v>
       </c>
       <c r="F49" s="3">
-        <v>2287000</v>
+        <v>4193000</v>
       </c>
       <c r="G49" s="3">
-        <v>2103400</v>
+        <v>1769000</v>
       </c>
       <c r="H49" s="3">
-        <v>2087900</v>
+        <v>1627000</v>
       </c>
       <c r="I49" s="3">
-        <v>2171900</v>
+        <v>1615000</v>
       </c>
       <c r="J49" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2226200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2214700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2166100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>285822200</v>
+        <v>4075000</v>
       </c>
       <c r="E52" s="3">
-        <v>17028900</v>
+        <v>221086000</v>
       </c>
       <c r="F52" s="3">
-        <v>18692700</v>
+        <v>29949000</v>
       </c>
       <c r="G52" s="3">
-        <v>6890700</v>
+        <v>14459000</v>
       </c>
       <c r="H52" s="3">
-        <v>10699300</v>
+        <v>5330000</v>
       </c>
       <c r="I52" s="3">
-        <v>7791800</v>
+        <v>8276000</v>
       </c>
       <c r="J52" s="3">
+        <v>6027000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4914000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3678200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3713300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>717099700</v>
+        <v>454214000</v>
       </c>
       <c r="E54" s="3">
-        <v>657581300</v>
+        <v>554683000</v>
       </c>
       <c r="F54" s="3">
-        <v>647917600</v>
+        <v>647810000</v>
       </c>
       <c r="G54" s="3">
-        <v>638571900</v>
+        <v>501170000</v>
       </c>
       <c r="H54" s="3">
-        <v>622009700</v>
+        <v>493941000</v>
       </c>
       <c r="I54" s="3">
-        <v>608264500</v>
+        <v>481130000</v>
       </c>
       <c r="J54" s="3">
+        <v>470498000</v>
+      </c>
+      <c r="K54" s="3">
         <v>567962500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>504748400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>497616300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,8 +2349,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2257,31 +2385,34 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>549000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>661000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>716000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2292,43 +2423,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399884200</v>
+        <v>419599000</v>
       </c>
       <c r="E59" s="3">
-        <v>490185700</v>
+        <v>309314000</v>
       </c>
       <c r="F59" s="3">
-        <v>585935100</v>
+        <v>830364000</v>
       </c>
       <c r="G59" s="3">
-        <v>1055198000</v>
+        <v>453226000</v>
       </c>
       <c r="H59" s="3">
-        <v>1120100900</v>
+        <v>816205000</v>
       </c>
       <c r="I59" s="3">
-        <v>477261500</v>
+        <v>866408000</v>
       </c>
       <c r="J59" s="3">
+        <v>369166000</v>
+      </c>
+      <c r="K59" s="3">
         <v>507721400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>399974500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>448806800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2362,78 +2499,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12032200</v>
+        <v>7669000</v>
       </c>
       <c r="E61" s="3">
-        <v>15650800</v>
+        <v>8646000</v>
       </c>
       <c r="F61" s="3">
-        <v>14957800</v>
+        <v>15334000</v>
       </c>
       <c r="G61" s="3">
-        <v>15238400</v>
+        <v>11570000</v>
       </c>
       <c r="H61" s="3">
-        <v>15573200</v>
+        <v>11787000</v>
       </c>
       <c r="I61" s="3">
-        <v>13512500</v>
+        <v>12046000</v>
       </c>
       <c r="J61" s="3">
+        <v>10452000</v>
+      </c>
+      <c r="K61" s="3">
         <v>13166000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10829700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11157200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>278067900</v>
+        <v>5237000</v>
       </c>
       <c r="E62" s="3">
-        <v>18834900</v>
+        <v>215088000</v>
       </c>
       <c r="F62" s="3">
-        <v>21227900</v>
+        <v>33150000</v>
       </c>
       <c r="G62" s="3">
-        <v>12142100</v>
+        <v>16420000</v>
       </c>
       <c r="H62" s="3">
-        <v>14694100</v>
+        <v>9392000</v>
       </c>
       <c r="I62" s="3">
-        <v>8740700</v>
+        <v>11366000</v>
       </c>
       <c r="J62" s="3">
+        <v>6761000</v>
+      </c>
+      <c r="K62" s="3">
         <v>6938500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5195100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5695100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>691667600</v>
+        <v>434737000</v>
       </c>
       <c r="E66" s="3">
-        <v>635281700</v>
+        <v>535011000</v>
       </c>
       <c r="F66" s="3">
-        <v>627385200</v>
+        <v>625842000</v>
       </c>
       <c r="G66" s="3">
-        <v>617774400</v>
+        <v>485288000</v>
       </c>
       <c r="H66" s="3">
-        <v>602037100</v>
+        <v>477854000</v>
       </c>
       <c r="I66" s="3">
-        <v>589304200</v>
+        <v>465681000</v>
       </c>
       <c r="J66" s="3">
+        <v>455832000</v>
+      </c>
+      <c r="K66" s="3">
         <v>549081000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>487851100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>481677800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2692,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19127100</v>
+        <v>13575000</v>
       </c>
       <c r="E72" s="3">
-        <v>18365700</v>
+        <v>14795000</v>
       </c>
       <c r="F72" s="3">
-        <v>16747100</v>
+        <v>21817000</v>
       </c>
       <c r="G72" s="3">
-        <v>15935200</v>
+        <v>12954000</v>
       </c>
       <c r="H72" s="3">
-        <v>15125900</v>
+        <v>12326000</v>
       </c>
       <c r="I72" s="3">
-        <v>14145900</v>
+        <v>11700000</v>
       </c>
       <c r="J72" s="3">
+        <v>10942000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13160800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13611800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12624100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25432200</v>
+        <v>19477000</v>
       </c>
       <c r="E76" s="3">
-        <v>22299700</v>
+        <v>19672000</v>
       </c>
       <c r="F76" s="3">
-        <v>20532400</v>
+        <v>21968000</v>
       </c>
       <c r="G76" s="3">
-        <v>20797400</v>
+        <v>15882000</v>
       </c>
       <c r="H76" s="3">
-        <v>19972600</v>
+        <v>16087000</v>
       </c>
       <c r="I76" s="3">
-        <v>18960400</v>
+        <v>15449000</v>
       </c>
       <c r="J76" s="3">
+        <v>14666000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18881500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16897300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15938400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1990900</v>
+        <v>783000</v>
       </c>
       <c r="E81" s="3">
-        <v>2139600</v>
+        <v>1540000</v>
       </c>
       <c r="F81" s="3">
-        <v>1751800</v>
+        <v>4019000</v>
       </c>
       <c r="G81" s="3">
-        <v>1142800</v>
+        <v>1355000</v>
       </c>
       <c r="H81" s="3">
-        <v>1945700</v>
+        <v>884000</v>
       </c>
       <c r="I81" s="3">
-        <v>1595300</v>
+        <v>1505000</v>
       </c>
       <c r="J81" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K81" s="3">
         <v>888200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1488200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1893500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,8 +3222,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3062,8 +3258,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1013600</v>
+        <v>-5899000</v>
       </c>
       <c r="E89" s="3">
-        <v>1918500</v>
+        <v>-908000</v>
       </c>
       <c r="F89" s="3">
-        <v>1267000</v>
+        <v>2745000</v>
       </c>
       <c r="G89" s="3">
-        <v>1978000</v>
+        <v>980000</v>
       </c>
       <c r="H89" s="3">
-        <v>116400</v>
+        <v>1530000</v>
       </c>
       <c r="I89" s="3">
-        <v>1807300</v>
+        <v>90000</v>
       </c>
       <c r="J89" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1038100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>174800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3159000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,43 +3504,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20700</v>
+        <v>-64000</v>
       </c>
       <c r="E91" s="3">
-        <v>-53000</v>
+        <v>-16000</v>
       </c>
       <c r="F91" s="3">
-        <v>-76300</v>
+        <v>-100000</v>
       </c>
       <c r="G91" s="3">
-        <v>-100800</v>
+        <v>-59000</v>
       </c>
       <c r="H91" s="3">
-        <v>-72400</v>
+        <v>-78000</v>
       </c>
       <c r="I91" s="3">
-        <v>-408500</v>
+        <v>-56000</v>
       </c>
       <c r="J91" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-41400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-216500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113800</v>
+        <v>-324000</v>
       </c>
       <c r="E94" s="3">
-        <v>-310300</v>
+        <v>-88000</v>
       </c>
       <c r="F94" s="3">
-        <v>-246900</v>
+        <v>-431000</v>
       </c>
       <c r="G94" s="3">
-        <v>76300</v>
+        <v>-191000</v>
       </c>
       <c r="H94" s="3">
-        <v>978700</v>
+        <v>59000</v>
       </c>
       <c r="I94" s="3">
-        <v>-278000</v>
+        <v>757000</v>
       </c>
       <c r="J94" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-431800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-538700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,43 +3672,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1124700</v>
+        <v>-1634000</v>
       </c>
       <c r="E96" s="3">
-        <v>-522300</v>
+        <v>-870000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1086000</v>
+        <v>-1244000</v>
       </c>
       <c r="G96" s="3">
-        <v>-482200</v>
+        <v>-840000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1016100</v>
+        <v>-373000</v>
       </c>
       <c r="I96" s="3">
-        <v>-429200</v>
+        <v>-786000</v>
       </c>
       <c r="J96" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-410900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-867800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1647000</v>
+        <v>-2457000</v>
       </c>
       <c r="E100" s="3">
-        <v>1155800</v>
+        <v>-1274000</v>
       </c>
       <c r="F100" s="3">
-        <v>-879100</v>
+        <v>214000</v>
       </c>
       <c r="G100" s="3">
-        <v>-924400</v>
+        <v>-680000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1276000</v>
+        <v>-715000</v>
       </c>
       <c r="I100" s="3">
-        <v>53000</v>
+        <v>-987000</v>
       </c>
       <c r="J100" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-532600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-598700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-283100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29700</v>
+        <v>203000</v>
       </c>
       <c r="E101" s="3">
-        <v>352900</v>
+        <v>-23000</v>
       </c>
       <c r="F101" s="3">
-        <v>40100</v>
+        <v>304000</v>
       </c>
       <c r="G101" s="3">
-        <v>-99500</v>
+        <v>31000</v>
       </c>
       <c r="H101" s="3">
-        <v>-41400</v>
+        <v>-77000</v>
       </c>
       <c r="I101" s="3">
-        <v>402100</v>
+        <v>-32000</v>
       </c>
       <c r="J101" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K101" s="3">
         <v>893300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>289600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-314700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2804100</v>
+        <v>-8477000</v>
       </c>
       <c r="E102" s="3">
-        <v>3111800</v>
+        <v>-2293000</v>
       </c>
       <c r="F102" s="3">
-        <v>181000</v>
+        <v>2547000</v>
       </c>
       <c r="G102" s="3">
-        <v>1030400</v>
+        <v>140000</v>
       </c>
       <c r="H102" s="3">
-        <v>-222400</v>
+        <v>797000</v>
       </c>
       <c r="I102" s="3">
-        <v>1984500</v>
+        <v>-172000</v>
       </c>
       <c r="J102" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="K102" s="3">
         <v>967000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-673000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2487400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,185 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>93736000</v>
       </c>
-      <c r="E8" s="3">
-        <v>40605000</v>
-      </c>
       <c r="F8" s="3">
+        <v>52539000</v>
+      </c>
+      <c r="G8" s="3">
         <v>35845000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16019000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43466000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42924000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36301000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45947800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20902900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33287100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4177000</v>
       </c>
-      <c r="E9" s="3">
-        <v>1630000</v>
-      </c>
       <c r="F9" s="3">
+        <v>2109000</v>
+      </c>
+      <c r="G9" s="3">
         <v>4565000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3186000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1792000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1920000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1987000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2197800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2210800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2080500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>89559000</v>
       </c>
-      <c r="E10" s="3">
-        <v>38975000</v>
-      </c>
       <c r="F10" s="3">
+        <v>50430000</v>
+      </c>
+      <c r="G10" s="3">
         <v>31280000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12833000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41674000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41004000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34314000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43750000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18692100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31206600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,72 +938,78 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>142000</v>
       </c>
-      <c r="E14" s="3">
-        <v>-13000</v>
-      </c>
       <c r="F14" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="G14" s="3">
         <v>182000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>570000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-162000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-66000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>238000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+        <v>109000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
+        <v>107000</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -998,8 +1020,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-6757000</v>
+      </c>
+      <c r="E17" s="3">
         <v>91695000</v>
       </c>
-      <c r="E17" s="3">
-        <v>39589000</v>
-      </c>
       <c r="F17" s="3">
+        <v>51224000</v>
+      </c>
+      <c r="G17" s="3">
         <v>32167000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14313000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41957000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41014000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34595000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44982000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19189000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30714100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>2041000</v>
       </c>
-      <c r="E18" s="3">
-        <v>1016000</v>
-      </c>
       <c r="F18" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="G18" s="3">
         <v>3678000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1706000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1509000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1910000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1706000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>965700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1713900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2573000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,198 +1135,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>397000</v>
       </c>
-      <c r="E20" s="3">
-        <v>106000</v>
-      </c>
       <c r="F20" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G20" s="3">
         <v>319000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>82000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>182000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>120000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>96000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>111200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>151300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>2665000</v>
       </c>
-      <c r="E21" s="3">
-        <v>1205000</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1822000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1687000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2090000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1811000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1173900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1889900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2745500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E22" s="3">
         <v>516000</v>
       </c>
-      <c r="E22" s="3">
-        <v>226000</v>
-      </c>
       <c r="F22" s="3">
+        <v>293000</v>
+      </c>
+      <c r="G22" s="3">
         <v>547000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>189000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>216000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>191000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>218500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>213900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>194900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>663000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1922000</v>
       </c>
-      <c r="E23" s="3">
-        <v>896000</v>
-      </c>
       <c r="F23" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="G23" s="3">
         <v>3450000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1599000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1482000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1814000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1611000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>858400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1651300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2478200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>569000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>326000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>152000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>309000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>377000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>163000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>584700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1953000</v>
       </c>
-      <c r="E26" s="3">
-        <v>895000</v>
-      </c>
       <c r="F26" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="G26" s="3">
         <v>2881000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1273000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1330000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1505000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1234000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>888200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1488200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1893500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1944000</v>
       </c>
-      <c r="E27" s="3">
-        <v>895000</v>
-      </c>
       <c r="F27" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="G27" s="3">
         <v>2877000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1272000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1329000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1505000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1234000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>888200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1488200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1893500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,28 +1502,31 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1161000</v>
       </c>
-      <c r="E29" s="3">
-        <v>645000</v>
-      </c>
       <c r="F29" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="G29" s="3">
         <v>1142000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>83000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1483,8 +1543,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-397000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-106000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-319000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-82000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-182000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-120000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-96000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-111200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-151300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E33" s="3">
         <v>783000</v>
       </c>
-      <c r="E33" s="3">
-        <v>1540000</v>
-      </c>
       <c r="F33" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="G33" s="3">
         <v>4019000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1355000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>884000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1505000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1234000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>888200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1488200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1893500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E35" s="3">
         <v>783000</v>
       </c>
-      <c r="E35" s="3">
-        <v>1540000</v>
-      </c>
       <c r="F35" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="G35" s="3">
         <v>4019000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1355000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>884000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1505000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1234000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>888200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1488200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1893500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,46 +1871,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7785000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6609000</v>
       </c>
-      <c r="E41" s="3">
-        <v>4808000</v>
-      </c>
       <c r="F41" s="3">
+        <v>6119000</v>
+      </c>
+      <c r="G41" s="3">
         <v>27051000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8312000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20400000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19024000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9843000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11027700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9676700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10926700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1862,46 +1951,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2729000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2054000</v>
       </c>
-      <c r="E43" s="3">
-        <v>1238000</v>
-      </c>
       <c r="F43" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="G43" s="3">
         <v>7990000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3120000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5681000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6610000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2872000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4531300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1938,8 +2033,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1976,8 +2074,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2014,122 +2115,134 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>377884000</v>
+      </c>
+      <c r="E47" s="3">
         <v>379715000</v>
       </c>
-      <c r="E47" s="3">
-        <v>271245000</v>
-      </c>
       <c r="F47" s="3">
+        <v>639141000</v>
+      </c>
+      <c r="G47" s="3">
         <v>913733000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>404637000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>802481000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>796888000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>388381000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>476271200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>424114700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>434640800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1090000</v>
       </c>
-      <c r="E48" s="3">
-        <v>796000</v>
-      </c>
       <c r="F48" s="3">
-        <v>41931000</v>
+        <v>1798000</v>
       </c>
       <c r="G48" s="3">
-        <v>17909000</v>
+        <v>24624000</v>
       </c>
       <c r="H48" s="3">
+        <v>18556000</v>
+      </c>
+      <c r="I48" s="3">
         <v>33101000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30513000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15389000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19591200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19067700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1036000</v>
       </c>
-      <c r="E49" s="3">
-        <v>568000</v>
-      </c>
       <c r="F49" s="3">
+        <v>723000</v>
+      </c>
+      <c r="G49" s="3">
         <v>4193000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1769000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1627000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1615000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1680000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2226200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2214700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2166100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2320,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4259000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4075000</v>
       </c>
-      <c r="E52" s="3">
-        <v>221086000</v>
-      </c>
       <c r="F52" s="3">
+        <v>284138000</v>
+      </c>
+      <c r="G52" s="3">
         <v>29949000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14459000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5330000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8276000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6027000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4914000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3678200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3713300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>463165000</v>
+      </c>
+      <c r="E54" s="3">
         <v>454214000</v>
       </c>
-      <c r="E54" s="3">
-        <v>554683000</v>
-      </c>
       <c r="F54" s="3">
+        <v>705945000</v>
+      </c>
+      <c r="G54" s="3">
         <v>647810000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>501170000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>493941000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>481130000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>470498000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>567962500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>504748400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>497616300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,8 +2479,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2388,22 +2518,25 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E58" s="3">
         <v>549000</v>
       </c>
-      <c r="E58" s="3">
-        <v>661000</v>
-      </c>
       <c r="F58" s="3">
+        <v>841000</v>
+      </c>
+      <c r="G58" s="3">
         <v>716000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2414,8 +2547,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2426,46 +2559,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>429139000</v>
+      </c>
+      <c r="E59" s="3">
         <v>419599000</v>
       </c>
-      <c r="E59" s="3">
-        <v>309314000</v>
-      </c>
       <c r="F59" s="3">
+        <v>393980000</v>
+      </c>
+      <c r="G59" s="3">
         <v>830364000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>453226000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>816205000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>866408000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>369166000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>507721400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>399974500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>448806800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2502,84 +2641,93 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8223000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7669000</v>
       </c>
-      <c r="E61" s="3">
-        <v>8646000</v>
-      </c>
       <c r="F61" s="3">
+        <v>11004000</v>
+      </c>
+      <c r="G61" s="3">
         <v>15334000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11570000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11787000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12046000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10452000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13166000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10829700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11157200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5278000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5237000</v>
       </c>
-      <c r="E62" s="3">
-        <v>215088000</v>
-      </c>
       <c r="F62" s="3">
+        <v>277443000</v>
+      </c>
+      <c r="G62" s="3">
         <v>33150000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16420000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9392000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11366000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6761000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6938500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5195100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5695100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>444055000</v>
+      </c>
+      <c r="E66" s="3">
         <v>434737000</v>
       </c>
-      <c r="E66" s="3">
-        <v>535011000</v>
-      </c>
       <c r="F66" s="3">
+        <v>680908000</v>
+      </c>
+      <c r="G66" s="3">
         <v>625842000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>485288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>477854000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>465681000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>455832000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>549081000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>487851100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>481677800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13420000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13575000</v>
       </c>
-      <c r="E72" s="3">
-        <v>14795000</v>
-      </c>
       <c r="F72" s="3">
+        <v>22597000</v>
+      </c>
+      <c r="G72" s="3">
         <v>21817000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12954000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12326000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11700000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10942000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13160800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13611800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12624100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19110000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19477000</v>
       </c>
-      <c r="E76" s="3">
-        <v>19672000</v>
-      </c>
       <c r="F76" s="3">
+        <v>25037000</v>
+      </c>
+      <c r="G76" s="3">
         <v>21968000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15882000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16087000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15449000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14666000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18881500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16897300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15938400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E81" s="3">
         <v>783000</v>
       </c>
-      <c r="E81" s="3">
-        <v>1540000</v>
-      </c>
       <c r="F81" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="G81" s="3">
         <v>4019000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1355000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>884000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1505000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1234000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>888200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1488200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1893500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +3420,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3261,8 +3459,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3664,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2109000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5899000</v>
       </c>
-      <c r="E89" s="3">
-        <v>-908000</v>
-      </c>
       <c r="F89" s="3">
+        <v>-746000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2745000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>980000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1530000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>90000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1398000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1038100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3159000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,46 +3724,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-78000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-316000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-216500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +3845,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-776000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-324000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-431000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-191000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>757000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-215000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-431800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-538700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,46 +3905,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-674000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1634000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-870000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-840000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-373000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-786000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-332000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-410900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-867800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4067,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2457000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>214000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-680000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-715000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-987000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>41000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-532600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-598700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-283100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E101" s="3">
         <v>203000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-23000</v>
-      </c>
       <c r="F101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G101" s="3">
         <v>304000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>31000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-77000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>311000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>893300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>289600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-314700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8477000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2547000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>140000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>797000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-172000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1535000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>967000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-673000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2487400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,197 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>62037000</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>93736000</v>
-      </c>
       <c r="F8" s="3">
+        <v>41197000</v>
+      </c>
+      <c r="G8" s="3">
         <v>52539000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35845000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16019000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43466000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>42924000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36301000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45947800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20902900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33287100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="E9" s="3">
         <v>202000</v>
       </c>
-      <c r="E9" s="3">
-        <v>4177000</v>
-      </c>
       <c r="F9" s="3">
+        <v>2068000</v>
+      </c>
+      <c r="G9" s="3">
         <v>2109000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4565000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3186000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1792000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1920000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1987000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2197800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2210800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2080500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>60372000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>89559000</v>
-      </c>
       <c r="F10" s="3">
+        <v>39129000</v>
+      </c>
+      <c r="G10" s="3">
         <v>50430000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31280000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12833000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41674000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41004000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34314000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43750000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18692100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31206600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,63 +957,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="E14" s="3">
-        <v>142000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>159000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>182000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>570000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-162000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-66000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>238000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>109000</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>107000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1008,11 +1030,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1023,8 +1045,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60762000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="E17" s="3">
-        <v>91695000</v>
-      </c>
       <c r="F17" s="3">
+        <v>40471000</v>
+      </c>
+      <c r="G17" s="3">
         <v>51224000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32167000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14313000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41957000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41014000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34595000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44982000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19189000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30714100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <v>2041000</v>
-      </c>
       <c r="F18" s="3">
+        <v>726000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1315000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3678000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1706000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1509000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1910000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1706000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>965700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1713900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2573000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,213 +1168,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>397000</v>
-      </c>
       <c r="F20" s="3">
+        <v>260000</v>
+      </c>
+      <c r="G20" s="3">
         <v>137000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>319000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>82000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>182000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>120000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>96000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>111200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>151300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>1659000</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>2665000</v>
-      </c>
       <c r="F21" s="3">
+        <v>999000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1559000</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1822000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1687000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2090000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1811000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1173900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1889900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2745500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E22" s="3">
         <v>163000</v>
       </c>
-      <c r="E22" s="3">
-        <v>516000</v>
-      </c>
       <c r="F22" s="3">
+        <v>223000</v>
+      </c>
+      <c r="G22" s="3">
         <v>293000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>547000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>189000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>216000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>191000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>218500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>213900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>194900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E23" s="3">
         <v>663000</v>
       </c>
-      <c r="E23" s="3">
-        <v>1922000</v>
-      </c>
       <c r="F23" s="3">
+        <v>763000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1159000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3450000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1599000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1482000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1814000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1611000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>858400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1651300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2478200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E24" s="3">
         <v>129000</v>
       </c>
-      <c r="E24" s="3">
-        <v>-31000</v>
-      </c>
       <c r="F24" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>569000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>326000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>152000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>309000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>377000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>163000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>584700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1651000</v>
+      </c>
+      <c r="E26" s="3">
         <v>534000</v>
       </c>
-      <c r="E26" s="3">
-        <v>1953000</v>
-      </c>
       <c r="F26" s="3">
+        <v>795000</v>
+      </c>
+      <c r="G26" s="3">
         <v>1158000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2881000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1273000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1330000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1505000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1234000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>888200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1488200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1893500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E27" s="3">
         <v>512000</v>
       </c>
-      <c r="E27" s="3">
-        <v>1944000</v>
-      </c>
       <c r="F27" s="3">
+        <v>792000</v>
+      </c>
+      <c r="G27" s="3">
         <v>1152000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2877000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1272000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1329000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1505000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1234000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>888200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1488200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1893500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1514,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-1161000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-1996000</v>
+      </c>
+      <c r="G29" s="3">
         <v>1480000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1142000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>83000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1546,8 +1606,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>-397000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-137000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-319000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-82000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-182000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-120000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-96000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-111200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-151300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E33" s="3">
         <v>512000</v>
       </c>
-      <c r="E33" s="3">
-        <v>783000</v>
-      </c>
       <c r="F33" s="3">
+        <v>-1204000</v>
+      </c>
+      <c r="G33" s="3">
         <v>2632000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4019000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1355000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>884000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1505000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1234000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>888200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1488200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1893500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E35" s="3">
         <v>512000</v>
       </c>
-      <c r="E35" s="3">
-        <v>783000</v>
-      </c>
       <c r="F35" s="3">
+        <v>-1204000</v>
+      </c>
+      <c r="G35" s="3">
         <v>2632000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4019000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1355000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>884000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1505000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1234000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>888200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1488200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1893500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,49 +1957,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7431000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7785000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6609000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6119000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27051000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8312000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20400000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19024000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9843000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11027700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9676700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10926700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1954,49 +2043,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3171000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2729000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2054000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2159000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7990000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3120000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5681000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6610000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2872000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4531300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2036,8 +2131,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2077,8 +2175,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2118,131 +2219,143 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400592000</v>
+      </c>
+      <c r="E47" s="3">
         <v>377884000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>379715000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>639141000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>913733000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>404637000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>802481000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>796888000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>388381000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>476271200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>424114700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>434640800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E48" s="3">
         <v>987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1090000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1798000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24624000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18556000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33101000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30513000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15389000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19591200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19067700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1008000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1036000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>723000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4193000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1627000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1615000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1680000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2226200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2214700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2166100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,49 +2439,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4858000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4259000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4075000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>284138000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29949000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14459000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5330000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8276000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6027000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4914000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3678200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3713300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>516097000</v>
+      </c>
+      <c r="E54" s="3">
         <v>463165000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454214000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>705945000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>647810000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>501170000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>493941000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>481130000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>470498000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>567962500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>504748400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>497616300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,8 +2609,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2521,25 +2651,28 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E58" s="3">
         <v>506000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>549000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>841000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>716000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2550,8 +2683,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2562,49 +2695,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>477515000</v>
+      </c>
+      <c r="E59" s="3">
         <v>429139000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>419599000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>393980000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>830364000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>453226000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>816205000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>866408000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>369166000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>507721400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>399974500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>448806800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2644,90 +2783,99 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8576000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8223000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7669000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11004000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15334000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11570000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11787000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12046000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10452000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13166000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10829700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11157200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6075000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5278000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5237000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>277443000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33150000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16420000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9392000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11366000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6761000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6938500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5195100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5695100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>495219000</v>
+      </c>
+      <c r="E66" s="3">
         <v>444055000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>434737000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>680908000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>625842000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>485288000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>477854000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>465681000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>455832000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>549081000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>487851100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>481677800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14424000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13420000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13575000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22597000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21817000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12954000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12326000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11700000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10942000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13160800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13611800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12624100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20878000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19110000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19477000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25037000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21968000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15882000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16087000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15449000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14666000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18881500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16897300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15938400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E81" s="3">
         <v>512000</v>
       </c>
-      <c r="E81" s="3">
-        <v>783000</v>
-      </c>
       <c r="F81" s="3">
+        <v>-1204000</v>
+      </c>
+      <c r="G81" s="3">
         <v>2632000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4019000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1355000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>884000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1505000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1234000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>888200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1488200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1893500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,8 +3618,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3462,8 +3660,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2109000</v>
       </c>
-      <c r="E89" s="3">
-        <v>-5899000</v>
-      </c>
       <c r="F89" s="3">
+        <v>-5016000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-746000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2745000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>980000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1530000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>90000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1398000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1038100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3159000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,49 +3944,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-64000</v>
-      </c>
       <c r="F91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-316000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-216500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-776000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-324000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-88000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-431000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-191000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>757000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-431800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-538700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,49 +4138,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-674000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-1634000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-870000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-840000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-373000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-786000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-332000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-410900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-867800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,127 +4312,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E100" s="3">
         <v>145000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-2457000</v>
-      </c>
       <c r="F100" s="3">
+        <v>-1183000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>214000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-680000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-715000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-987000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>41000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-532600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-598700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-283100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-59000</v>
       </c>
-      <c r="E101" s="3">
-        <v>203000</v>
-      </c>
       <c r="F101" s="3">
+        <v>193000</v>
+      </c>
+      <c r="G101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>304000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>31000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-77000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>311000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>893300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>289600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-314700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1419000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-8477000</v>
-      </c>
       <c r="F102" s="3">
+        <v>-6184000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2547000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>140000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>797000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-172000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1535000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>967000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-673000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2487400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,209 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11692000</v>
+      </c>
+      <c r="E8" s="3">
         <v>62037000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41197000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52539000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35845000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16019000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43466000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42924000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36301000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45947800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20902900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33287100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1665000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>202000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2068000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2109000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4565000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3186000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1792000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1920000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1987000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2197800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2210800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2080500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10666000</v>
+      </c>
+      <c r="E10" s="3">
         <v>60372000</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39129000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50430000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31280000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12833000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41674000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41004000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34314000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43750000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18692100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31206600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,69 +976,75 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E14" s="3">
         <v>48000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>159000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>182000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>570000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-162000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-66000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>238000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>109000</v>
+        <v>147000</v>
       </c>
       <c r="E15" s="3">
         <v>109000</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>107000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1033,11 +1055,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10444000</v>
+      </c>
+      <c r="E17" s="3">
         <v>60762000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40471000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51224000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32167000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14313000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41957000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41014000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34595000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44982000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19189000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30714100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1275000</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>726000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1315000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3678000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1706000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1509000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1910000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1706000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>965700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1713900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2573000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E20" s="3">
         <v>384000</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>260000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>137000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>319000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>82000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>182000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>120000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>96000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>111200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>151300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1659000</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>999000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1559000</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1822000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1687000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2090000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1811000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1173900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1889900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2745500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E22" s="3">
         <v>174000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>163000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>223000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>293000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>547000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>189000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>216000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>191000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>218500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>213900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>194900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1485000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>663000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>763000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1159000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3450000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1599000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1482000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1814000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1611000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>858400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1651300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2478200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-166000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>129000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>569000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>326000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>152000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>309000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>377000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>163000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>584700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1651000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>534000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>795000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1158000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2881000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1273000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1330000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1505000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1234000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>888200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1488200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1893500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1606000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>512000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>792000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1152000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2877000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1272000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1329000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1505000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1234000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>888200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1488200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1893500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,34 +1622,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-5707000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1996000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1480000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1142000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>83000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1669,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-384000</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-260000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-137000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-319000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-82000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-182000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-120000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-96000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-111200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-151300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4010000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1606000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>512000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1204000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2632000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4019000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1355000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>884000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1505000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1234000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>888200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1488200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1893500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4010000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1606000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>512000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1204000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2632000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4019000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1355000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>884000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1505000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1234000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>888200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1488200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1893500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2043,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5295000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7431000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7785000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6609000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6119000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27051000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8312000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20400000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19024000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9843000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11027700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9676700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10926700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2135,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3171000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2729000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2054000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2159000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7990000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3120000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5681000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6610000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2872000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4531300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2229,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2276,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2323,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>161057000</v>
+      </c>
+      <c r="E47" s="3">
         <v>400592000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>377884000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>379715000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>639141000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>913733000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>404637000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>802481000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>796888000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>388381000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>476271200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>424114700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>434640800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E48" s="3">
         <v>916000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>987000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1090000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1798000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24624000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18556000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33101000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30513000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15389000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19591200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19067700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18755000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1031000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1008000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1036000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>723000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4193000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1627000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1615000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1680000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2226200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2214700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2166100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>336048000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4858000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4259000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4075000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>284138000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29949000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14459000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5330000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8276000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6027000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4914000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3678200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3713300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>525121000</v>
+      </c>
+      <c r="E54" s="3">
         <v>516097000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>463165000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454214000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>705945000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>647810000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>501170000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>493941000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>481130000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>470498000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>567962500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>504748400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>497616300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2739,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,28 +2784,31 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="3">
         <v>501000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>506000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>549000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>841000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>716000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2686,8 +2819,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2698,52 +2831,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>165465000</v>
+      </c>
+      <c r="E59" s="3">
         <v>477515000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>429139000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>419599000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>393980000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>830364000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>453226000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>816205000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>866408000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>369166000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>507721400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>399974500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>448806800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +2925,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6799000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8576000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8223000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7669000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11004000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15334000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11570000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11787000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12046000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10452000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13166000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10829700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11157200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>335495000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6075000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5278000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5237000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>277443000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33150000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16420000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9392000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11366000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6761000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6938500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5195100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5695100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>509408000</v>
+      </c>
+      <c r="E66" s="3">
         <v>495219000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>444055000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>434737000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>680908000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>625842000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>485288000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>477854000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>465681000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>455832000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>549081000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>487851100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>481677800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10180000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14424000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13420000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13575000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22597000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21817000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12954000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12326000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11700000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10942000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13160800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13611800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12624100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15713000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20878000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19110000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19477000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25037000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21968000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15882000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16087000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15449000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14666000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18881500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16897300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15938400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4010000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1606000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>512000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1204000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2632000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4019000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1355000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>884000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1505000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1234000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>888200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1488200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1893500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +3816,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +3861,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>768000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-143000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2109000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5016000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-746000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2745000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>980000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1530000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>90000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1398000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1038100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>174800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3159000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-316000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-216500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-792000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-419000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-776000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-236000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-431000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-191000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>757000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-431800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-538700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4371,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-283000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-140000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-674000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-764000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-870000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-840000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-373000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-786000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-332000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-410900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-867800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="E100" s="3">
         <v>67000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>145000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1183000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>214000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-680000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-715000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-987000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-532600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-598700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-283100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E101" s="3">
         <v>129000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-59000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>193000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>304000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>31000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-77000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>311000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>893300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>289600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-314700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-562000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-366000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1419000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6184000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2547000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>140000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>797000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-172000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1535000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>967000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-673000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2487400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -734,7 +734,7 @@
         <v>11692000</v>
       </c>
       <c r="E8" s="3">
-        <v>62037000</v>
+        <v>36247000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
@@ -781,10 +781,10 @@
         <v>1026000</v>
       </c>
       <c r="E9" s="3">
-        <v>1665000</v>
+        <v>2080000</v>
       </c>
       <c r="F9" s="3">
-        <v>202000</v>
+        <v>1433000</v>
       </c>
       <c r="G9" s="3">
         <v>2068000</v>
@@ -793,7 +793,7 @@
         <v>2109000</v>
       </c>
       <c r="I9" s="3">
-        <v>4565000</v>
+        <v>6103000</v>
       </c>
       <c r="J9" s="3">
         <v>3186000</v>
@@ -828,7 +828,7 @@
         <v>10666000</v>
       </c>
       <c r="E10" s="3">
-        <v>60372000</v>
+        <v>34167000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
@@ -840,7 +840,7 @@
         <v>50430000</v>
       </c>
       <c r="I10" s="3">
-        <v>31280000</v>
+        <v>29742000</v>
       </c>
       <c r="J10" s="3">
         <v>12833000</v>
@@ -988,7 +988,7 @@
         <v>56000</v>
       </c>
       <c r="E14" s="3">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>147000</v>
       </c>
       <c r="E15" s="3">
-        <v>109000</v>
+        <v>186000</v>
       </c>
       <c r="F15" s="3">
         <v>109000</v>
@@ -1098,7 +1098,7 @@
         <v>10444000</v>
       </c>
       <c r="E17" s="3">
-        <v>60762000</v>
+        <v>33540000</v>
       </c>
       <c r="F17" s="3">
         <v>-6757000</v>
@@ -1145,7 +1145,7 @@
         <v>1248000</v>
       </c>
       <c r="E18" s="3">
-        <v>1275000</v>
+        <v>2707000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
@@ -1211,7 +1211,7 @@
         <v>179000</v>
       </c>
       <c r="E20" s="3">
-        <v>384000</v>
+        <v>517000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
@@ -1258,7 +1258,7 @@
         <v>1574000</v>
       </c>
       <c r="E21" s="3">
-        <v>1659000</v>
+        <v>3333000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1305,7 +1305,7 @@
         <v>164000</v>
       </c>
       <c r="E22" s="3">
-        <v>174000</v>
+        <v>316000</v>
       </c>
       <c r="F22" s="3">
         <v>163000</v>
@@ -1352,7 +1352,7 @@
         <v>1263000</v>
       </c>
       <c r="E23" s="3">
-        <v>1485000</v>
+        <v>2908000</v>
       </c>
       <c r="F23" s="3">
         <v>663000</v>
@@ -1399,7 +1399,7 @@
         <v>193000</v>
       </c>
       <c r="E24" s="3">
-        <v>-166000</v>
+        <v>440000</v>
       </c>
       <c r="F24" s="3">
         <v>129000</v>
@@ -1493,7 +1493,7 @@
         <v>1070000</v>
       </c>
       <c r="E26" s="3">
-        <v>1651000</v>
+        <v>2468000</v>
       </c>
       <c r="F26" s="3">
         <v>534000</v>
@@ -1540,7 +1540,7 @@
         <v>1697000</v>
       </c>
       <c r="E27" s="3">
-        <v>1606000</v>
+        <v>2458000</v>
       </c>
       <c r="F27" s="3">
         <v>512000</v>
@@ -1634,7 +1634,7 @@
         <v>-5707000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-340000</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>-179000</v>
       </c>
       <c r="E32" s="3">
-        <v>-384000</v>
+        <v>-517000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
@@ -1822,7 +1822,7 @@
         <v>-4010000</v>
       </c>
       <c r="E33" s="3">
-        <v>1606000</v>
+        <v>2118000</v>
       </c>
       <c r="F33" s="3">
         <v>512000</v>
@@ -1916,7 +1916,7 @@
         <v>-4010000</v>
       </c>
       <c r="E35" s="3">
-        <v>1606000</v>
+        <v>2118000</v>
       </c>
       <c r="F35" s="3">
         <v>512000</v>
@@ -3760,7 +3760,7 @@
         <v>-4010000</v>
       </c>
       <c r="E81" s="3">
-        <v>1606000</v>
+        <v>2118000</v>
       </c>
       <c r="F81" s="3">
         <v>512000</v>
@@ -4108,7 +4108,7 @@
         <v>768000</v>
       </c>
       <c r="E89" s="3">
-        <v>-143000</v>
+        <v>1966000</v>
       </c>
       <c r="F89" s="3">
         <v>2109000</v>
@@ -4174,7 +4174,7 @@
         <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-16000</v>
+        <v>-59000</v>
       </c>
       <c r="F91" s="3">
         <v>-43000</v>
@@ -4315,7 +4315,7 @@
         <v>-792000</v>
       </c>
       <c r="E94" s="3">
-        <v>-419000</v>
+        <v>-1195000</v>
       </c>
       <c r="F94" s="3">
         <v>-776000</v>
@@ -4381,7 +4381,7 @@
         <v>-283000</v>
       </c>
       <c r="E96" s="3">
-        <v>-140000</v>
+        <v>-814000</v>
       </c>
       <c r="F96" s="3">
         <v>-674000</v>
@@ -4569,7 +4569,7 @@
         <v>-495000</v>
       </c>
       <c r="E100" s="3">
-        <v>67000</v>
+        <v>212000</v>
       </c>
       <c r="F100" s="3">
         <v>145000</v>
@@ -4616,7 +4616,7 @@
         <v>-43000</v>
       </c>
       <c r="E101" s="3">
-        <v>129000</v>
+        <v>70000</v>
       </c>
       <c r="F101" s="3">
         <v>-59000</v>
@@ -4663,7 +4663,7 @@
         <v>-562000</v>
       </c>
       <c r="E102" s="3">
-        <v>-366000</v>
+        <v>1053000</v>
       </c>
       <c r="F102" s="3">
         <v>1419000</v>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14808000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11692000</v>
       </c>
-      <c r="E8" s="3">
-        <v>36247000</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>42311000</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41197000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52539000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35845000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16019000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43466000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42924000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36301000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45947800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20902900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33287100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1026000</v>
       </c>
-      <c r="E9" s="3">
-        <v>2080000</v>
-      </c>
       <c r="F9" s="3">
+        <v>647000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1433000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2068000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2109000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6103000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3186000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1792000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1920000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1987000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2197800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2210800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2080500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13745000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10666000</v>
       </c>
-      <c r="E10" s="3">
-        <v>34167000</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>41664000</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39129000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50430000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29742000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12833000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41674000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41004000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34314000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43750000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18692100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31206600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,75 +995,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>56000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>30000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>159000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>182000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>570000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-162000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-66000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>238000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E15" s="3">
         <v>147000</v>
       </c>
-      <c r="E15" s="3">
-        <v>186000</v>
-      </c>
       <c r="F15" s="3">
+        <v>77000</v>
+      </c>
+      <c r="G15" s="3">
         <v>109000</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>107000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1058,11 +1080,11 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13404000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10444000</v>
       </c>
-      <c r="E17" s="3">
-        <v>33540000</v>
-      </c>
       <c r="F17" s="3">
+        <v>40297000</v>
+      </c>
+      <c r="G17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40471000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51224000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32167000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14313000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41957000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41014000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34595000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44982000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19189000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30714100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1248000</v>
       </c>
-      <c r="E18" s="3">
-        <v>2707000</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>726000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1315000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3678000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1706000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1509000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1910000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1706000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>965700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1713900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2573000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,102 +1234,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E20" s="3">
         <v>179000</v>
       </c>
-      <c r="E20" s="3">
-        <v>517000</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>384000</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>260000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>137000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>319000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>82000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>182000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>120000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>111200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>151300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1574000</v>
       </c>
-      <c r="E21" s="3">
-        <v>3333000</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>2366000</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>999000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1559000</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1822000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1687000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2090000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1811000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1173900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1889900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2745500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,140 +1344,149 @@
         <v>164000</v>
       </c>
       <c r="E22" s="3">
-        <v>316000</v>
+        <v>164000</v>
       </c>
       <c r="F22" s="3">
+        <v>153000</v>
+      </c>
+      <c r="G22" s="3">
         <v>163000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>223000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>293000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>547000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>189000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>216000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>191000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>218500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>213900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>194900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1263000</v>
       </c>
-      <c r="E23" s="3">
-        <v>2908000</v>
-      </c>
       <c r="F23" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="G23" s="3">
         <v>663000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>763000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1159000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3450000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1599000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1482000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1814000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1611000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>858400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1651300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2478200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E24" s="3">
         <v>193000</v>
       </c>
-      <c r="E24" s="3">
-        <v>440000</v>
-      </c>
       <c r="F24" s="3">
+        <v>311000</v>
+      </c>
+      <c r="G24" s="3">
         <v>129000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>569000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>326000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>152000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>309000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>377000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-29700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>163000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>584700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1070000</v>
       </c>
-      <c r="E26" s="3">
-        <v>2468000</v>
-      </c>
       <c r="F26" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="G26" s="3">
         <v>534000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>795000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1158000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2881000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1273000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1330000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1505000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1234000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>888200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1488200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1893500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1697000</v>
       </c>
-      <c r="E27" s="3">
-        <v>2458000</v>
-      </c>
       <c r="F27" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="G27" s="3">
         <v>512000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>792000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1152000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2877000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1272000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1329000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1505000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1234000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>888200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1488200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1893500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,37 +1682,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-5707000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-340000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1996000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1480000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1142000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>83000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-179000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-517000</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-260000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-137000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-319000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-82000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-182000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-120000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-111200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-151300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4010000</v>
       </c>
-      <c r="E33" s="3">
-        <v>2118000</v>
-      </c>
       <c r="F33" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="G33" s="3">
         <v>512000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1204000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2632000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4019000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1355000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>884000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1505000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1234000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>888200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1488200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1893500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4010000</v>
       </c>
-      <c r="E35" s="3">
-        <v>2118000</v>
-      </c>
       <c r="F35" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="G35" s="3">
         <v>512000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1204000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2632000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4019000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1355000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>884000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1505000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1234000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>888200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1488200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1893500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,55 +2129,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6259000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5295000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7431000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7785000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6609000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6119000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27051000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8312000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20400000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19024000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9843000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11027700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9676700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10926700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2138,55 +2227,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1954000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3171000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2729000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2054000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2159000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7990000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3120000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5681000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6610000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2872000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4531300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2327,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,8 +2377,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2326,149 +2427,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>170201000</v>
+      </c>
+      <c r="E47" s="3">
         <v>161057000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400592000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>377884000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>379715000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>639141000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>913733000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>404637000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>802481000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>796888000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>388381000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>476271200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>424114700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>434640800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E48" s="3">
         <v>564000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>916000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1090000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1798000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24624000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18556000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33101000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30513000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15389000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19591200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19067700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18755000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>956000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1031000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1008000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1036000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>723000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4193000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1627000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1615000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1680000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2226200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2214700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2166100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E52" s="3">
         <v>336048000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4858000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4259000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4075000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>284138000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29949000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14459000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5330000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8276000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6027000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4914000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3678200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3713300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>199102000</v>
+      </c>
+      <c r="E54" s="3">
         <v>525121000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>516097000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>463165000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>454214000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>705945000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>647810000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>501170000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>493941000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>481130000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>470498000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>567962500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>504748400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>497616300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,8 +2869,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2787,8 +2917,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2796,22 +2929,22 @@
         <v>500000</v>
       </c>
       <c r="E58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F58" s="3">
         <v>501000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>506000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>549000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>841000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>716000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2822,8 +2955,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2834,55 +2967,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171008000</v>
+      </c>
+      <c r="E59" s="3">
         <v>165465000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>477515000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>429139000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>419599000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>393980000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>830364000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>453226000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>816205000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>866408000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>369166000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>507721400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>399974500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>448806800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2928,102 +3067,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6488000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6799000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8576000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8223000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7669000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11004000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15334000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11570000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11787000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12046000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10452000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13166000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10829700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11157200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2862000</v>
+      </c>
+      <c r="E62" s="3">
         <v>335495000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6075000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5278000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5237000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>277443000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33150000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16420000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9392000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11366000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6761000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6938500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5195100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5695100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>182014000</v>
+      </c>
+      <c r="E66" s="3">
         <v>509408000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>495219000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>444055000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>434737000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>680908000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>625842000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>485288000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>477854000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>465681000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>455832000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>549081000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>487851100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>481677800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10216000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10180000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14424000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13420000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13575000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22597000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21817000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12954000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12326000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11700000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10942000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13160800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13611800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12624100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17088000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15713000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20878000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19110000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19477000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25037000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21968000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15882000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16087000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15449000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14666000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18881500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16897300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15938400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4010000</v>
       </c>
-      <c r="E81" s="3">
-        <v>2118000</v>
-      </c>
       <c r="F81" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="G81" s="3">
         <v>512000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1204000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2632000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4019000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1355000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>884000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1505000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1234000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>888200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1488200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1893500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,8 +4014,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,8 +4062,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2111000</v>
+      </c>
+      <c r="E89" s="3">
         <v>768000</v>
       </c>
-      <c r="E89" s="3">
-        <v>1966000</v>
-      </c>
       <c r="F89" s="3">
+        <v>325000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2109000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5016000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-746000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2745000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>980000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1530000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>90000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1398000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1038100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>174800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3159000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-48000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-316000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-216500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-792000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-1195000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-776000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-236000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-431000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-191000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>757000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-215000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-431800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-538700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-283000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-814000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-674000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-764000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-870000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-840000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-373000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-786000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-332000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-410900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-867800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-495000</v>
       </c>
-      <c r="E100" s="3">
-        <v>212000</v>
-      </c>
       <c r="F100" s="3">
+        <v>67000</v>
+      </c>
+      <c r="G100" s="3">
         <v>145000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1183000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>214000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-680000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-715000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-987000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-532600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-598700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-283100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-43000</v>
       </c>
-      <c r="E101" s="3">
-        <v>70000</v>
-      </c>
       <c r="F101" s="3">
+        <v>129000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>193000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>304000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-77000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>311000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>893300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>289600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-314700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-562000</v>
       </c>
-      <c r="E102" s="3">
-        <v>1053000</v>
-      </c>
       <c r="F102" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="G102" s="3">
         <v>1419000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6184000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2547000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>140000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>797000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-172000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1535000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>967000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-673000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2487400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>14808000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11692000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42311000</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41197000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52539000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35845000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16019000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43466000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42924000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36301000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45947800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20902900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33287100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1063000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1026000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>647000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1433000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2068000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2109000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6103000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3186000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1792000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1920000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1987000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2197800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2210800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2080500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>13745000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10666000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41664000</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39129000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50430000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29742000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12833000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41674000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41004000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34314000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43750000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18692100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31206600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,81 +1014,87 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>56000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>159000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>182000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>570000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-162000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-66000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>238000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E15" s="3">
         <v>61000</v>
       </c>
-      <c r="E15" s="3">
-        <v>147000</v>
-      </c>
       <c r="F15" s="3">
+        <v>85000</v>
+      </c>
+      <c r="G15" s="3">
         <v>77000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>109000</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>107000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1083,11 +1105,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-13382000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13404000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10444000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40297000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40471000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51224000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32167000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14313000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41957000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41014000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34595000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44982000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19189000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30714100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>1404000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1248000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2014000</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>726000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1315000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3678000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1706000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1509000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1910000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1706000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>965700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1713900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2573000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>173000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>179000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>384000</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>260000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>137000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>319000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>82000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>182000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>120000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>96000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>111200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>151300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1452000</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1574000</v>
+        <v>1514000</v>
       </c>
       <c r="F21" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2366000</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>999000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1559000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1822000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1687000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2090000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1811000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1173900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1889900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2745500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>164000</v>
+        <v>103000</v>
       </c>
       <c r="E22" s="3">
         <v>164000</v>
       </c>
       <c r="F22" s="3">
+        <v>164000</v>
+      </c>
+      <c r="G22" s="3">
         <v>153000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>163000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>223000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>293000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>547000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>189000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>216000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>191000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>218500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>213900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>194900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1413000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1263000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2245000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>663000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>763000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1159000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3450000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1599000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1482000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1814000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1611000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>858400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1651300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2478200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E24" s="3">
         <v>269000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>193000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>311000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>569000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>326000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>152000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>309000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>377000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-29700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>584700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1144000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1070000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1934000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>534000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>795000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1158000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2881000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1273000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1330000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1505000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1234000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>888200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1488200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1893500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>495000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1697000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1946000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>512000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>792000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1152000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2877000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1272000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1329000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1505000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1234000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>888200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1488200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1893500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,40 +1742,43 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1473000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-5707000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-340000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1996000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1480000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1142000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>83000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-173000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-179000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-384000</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-260000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-137000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-319000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-82000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-182000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-120000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-96000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-111200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-151300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1968000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4010000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1606000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>512000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1204000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2632000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4019000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1355000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>884000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1505000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1234000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>888200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1488200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1893500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1968000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4010000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1606000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>512000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1204000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2632000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4019000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1355000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>884000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1505000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1234000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>888200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1488200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1893500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5647000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6259000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5295000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7431000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7785000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6609000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6119000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27051000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8312000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19024000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9843000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11027700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9676700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10926700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,58 +2319,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1904000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1613000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1954000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3171000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2729000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2054000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2159000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7990000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3120000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5681000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6610000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2872000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4531300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>122176000</v>
+      </c>
+      <c r="E47" s="3">
         <v>170201000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>161057000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400592000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>377884000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>379715000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>639141000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>913733000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>404637000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>802481000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>796888000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>388381000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>476271200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>424114700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>434640800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E48" s="3">
         <v>516000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>564000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>916000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1090000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1798000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24624000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18556000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33101000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30513000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15389000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19591200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19067700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18755000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E49" s="3">
         <v>956000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1031000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1008000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1036000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>723000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4193000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1627000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1615000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1680000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2226200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2214700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2166100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E52" s="3">
         <v>266000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>336048000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4858000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4259000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4075000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>284138000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29949000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14459000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5330000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8276000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6027000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4914000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3678200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3713300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166888000</v>
+      </c>
+      <c r="E54" s="3">
         <v>199102000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>525121000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>516097000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>463165000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>454214000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>705945000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>647810000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>501170000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>493941000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>481130000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>470498000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>567962500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>504748400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>497616300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,34 +3050,37 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500000</v>
+        <v>544000</v>
       </c>
       <c r="E58" s="3">
         <v>500000</v>
       </c>
       <c r="F58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G58" s="3">
         <v>501000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>506000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>549000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>841000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>716000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2958,8 +3091,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141801000</v>
+      </c>
+      <c r="E59" s="3">
         <v>171008000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>165465000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>477515000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>429139000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>419599000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>393980000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>830364000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>453226000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>816205000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>866408000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>369166000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>507721400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>399974500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>448806800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4576000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6488000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6799000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8576000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8223000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7669000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11004000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15334000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11570000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11787000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12046000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10452000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13166000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10829700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11157200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2862000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>335495000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6075000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5278000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5237000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>277443000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33150000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16420000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9392000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11366000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6761000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6938500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5195100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5695100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>150779000</v>
+      </c>
+      <c r="E66" s="3">
         <v>182014000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>509408000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>495219000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>444055000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>434737000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>680908000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>625842000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>485288000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>477854000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>465681000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>455832000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>549081000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>487851100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>481677800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9997000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10216000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10180000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14424000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13420000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13575000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22597000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21817000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12954000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12326000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11700000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10942000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13160800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13611800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12624100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16109000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17088000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15713000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20878000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19110000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19477000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25037000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21968000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15882000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16087000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15449000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14666000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18881500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16897300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15938400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1968000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4010000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1606000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>512000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1204000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2632000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4019000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1355000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>884000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1505000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1234000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>888200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1488200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1893500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,8 +4212,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4065,8 +4263,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2111000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>768000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>325000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2109000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5016000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-746000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2745000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>980000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1530000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1398000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1038100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>174800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3159000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-316000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-41400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-216500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E94" s="3">
         <v>66000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-792000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-417000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-776000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-236000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-88000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-431000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-191000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>757000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-215000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-431800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-538700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-320000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-138000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-283000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-140000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-674000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-764000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-870000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-840000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-373000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-786000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-332000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-410900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-867800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2227000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1760000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-495000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>145000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1183000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>214000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-680000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-715000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-987000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>41000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-532600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-598700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-283100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-43000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>129000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>193000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>304000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-77000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>311000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>893300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>289600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-314700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-755000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-286000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-562000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-366000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1419000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6184000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2547000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>140000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>797000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-172000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1535000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>967000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-673000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2487400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>4776000</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14808000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11692000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42311000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41197000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52539000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35845000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16019000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43466000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42924000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36301000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45947800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20902900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33287100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1120000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1063000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1026000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>647000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1433000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2068000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2109000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6103000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3186000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1792000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1920000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1987000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2197800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2210800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2080500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>3571000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13745000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10666000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41664000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39129000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50430000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29742000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12833000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41674000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41004000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34314000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43750000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18692100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31206600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,87 +1033,93 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-62000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>56000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>30000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>159000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>182000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>570000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-162000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-66000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>238000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E15" s="3">
         <v>71000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>61000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>85000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>77000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>109000</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>107000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1108,11 +1130,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3531000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-13382000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13404000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10444000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40297000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40471000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>51224000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32167000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14313000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41957000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41014000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34595000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44982000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19189000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30714100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1404000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1248000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2014000</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>726000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1315000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3678000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1706000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1509000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1910000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1706000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>965700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1713900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2573000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>173000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>179000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>384000</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>260000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>137000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>319000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>182000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>120000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>96000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>151300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1514000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1512000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2366000</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>999000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1559000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1822000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1687000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2090000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1811000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1173900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1889900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2745500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E22" s="3">
         <v>103000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>164000</v>
       </c>
       <c r="F22" s="3">
         <v>164000</v>
       </c>
       <c r="G22" s="3">
+        <v>164000</v>
+      </c>
+      <c r="H22" s="3">
         <v>153000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>163000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>223000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>293000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>547000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>189000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>216000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>191000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>218500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>213900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>194900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1413000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1263000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2245000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>663000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>763000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1159000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3450000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1599000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1482000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1814000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1611000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>858400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1651300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2478200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E24" s="3">
         <v>194000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>269000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>193000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>311000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>129000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>569000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>326000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>152000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>309000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>377000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>584700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E26" s="3">
         <v>106000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1144000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1070000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1934000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>534000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>795000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1158000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2881000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1273000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1330000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1505000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1234000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>888200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1488200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1893500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E27" s="3">
         <v>104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>495000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1697000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1946000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>512000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>792000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1152000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2877000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1272000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1329000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1505000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1234000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>888200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1488200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1893500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1754,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1473000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-5707000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-340000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1996000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1480000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1142000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>83000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-173000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-179000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-384000</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-260000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-137000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-319000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-182000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-120000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-96000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-151300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1968000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4010000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1606000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>512000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1204000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2632000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4019000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1355000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>884000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1505000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1234000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>888200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1488200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1893500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E35" s="3">
         <v>104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1968000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4010000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1606000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>512000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1204000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2632000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4019000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1355000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>884000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1505000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1234000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>888200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1488200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1893500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4765000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5647000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6259000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5295000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7431000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7785000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6609000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6119000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27051000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8312000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20400000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19024000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9843000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11027700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9676700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10926700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,61 +2411,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1904000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1613000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1954000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3171000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2729000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2054000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2159000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7990000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3120000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5681000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6610000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2872000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4531300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>121872000</v>
+      </c>
+      <c r="E47" s="3">
         <v>122176000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>170201000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>161057000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400592000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>377884000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>379715000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>639141000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>913733000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>404637000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>802481000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>796888000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>388381000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>476271200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>424114700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>434640800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E48" s="3">
         <v>440000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>516000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>564000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>916000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1090000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1798000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24624000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18556000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33101000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30513000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15389000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19591200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19067700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18755000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E49" s="3">
         <v>909000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>956000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1031000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1008000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1036000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>723000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4193000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1627000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1615000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1680000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2226200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2214700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2166100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E52" s="3">
         <v>378000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>266000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>336048000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4858000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4259000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4075000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>284138000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29949000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14459000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5330000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8276000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6027000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4914000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3678200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3713300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>165942000</v>
+      </c>
+      <c r="E54" s="3">
         <v>166888000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>199102000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>525121000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>516097000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>463165000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>454214000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>705945000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>647810000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>501170000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>493941000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>481130000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>470498000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>567962500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>504748400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>497616300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,37 +3183,40 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E58" s="3">
         <v>544000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500000</v>
       </c>
       <c r="F58" s="3">
         <v>500000</v>
       </c>
       <c r="G58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H58" s="3">
         <v>501000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>506000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>549000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>841000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>716000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3094,8 +3227,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139209000</v>
+      </c>
+      <c r="E59" s="3">
         <v>141801000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171008000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>165465000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>477515000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>429139000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>419599000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>393980000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>830364000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>453226000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>816205000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>866408000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>369166000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>507721400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>399974500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>448806800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4575000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4576000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6488000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6799000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8576000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8223000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7669000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11004000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15334000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11570000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11787000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12046000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10452000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13166000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10829700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11157200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2699000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2862000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>335495000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6075000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5278000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5237000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>277443000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33150000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16420000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9392000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11366000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6761000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6938500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5195100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5695100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148982000</v>
+      </c>
+      <c r="E66" s="3">
         <v>150779000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>182014000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>509408000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>495219000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>444055000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>434737000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>680908000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>625842000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>485288000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>477854000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>465681000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>455832000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>549081000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>487851100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>481677800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10810000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9997000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10216000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10180000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14424000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13420000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13575000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22597000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21817000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12954000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12326000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11700000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10942000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13160800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13611800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12624100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16960000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16109000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17088000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15713000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20878000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19110000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19477000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25037000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21968000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15882000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16087000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15449000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14666000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18881500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16897300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15938400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E81" s="3">
         <v>104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1968000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4010000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1606000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>512000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1204000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2632000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4019000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1355000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>884000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1505000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1234000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>888200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1488200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1893500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,8 +4464,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-638000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1716000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2111000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>768000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>325000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2109000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5016000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-746000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2745000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>980000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1530000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>90000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1398000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1038100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>174800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3159000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-48000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-78000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-316000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-216500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>66000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-792000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-417000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-776000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-236000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-88000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-431000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-191000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>59000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>757000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-215000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-431800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-538700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-320000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-138000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-283000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-140000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-674000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-764000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-870000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-840000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-373000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-786000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-332000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-410900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-867800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2227000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1760000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-495000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>145000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1183000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>214000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-680000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-715000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-987000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>41000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-532600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-598700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-283100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-180000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-43000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>129000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>193000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>304000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-77000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>311000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>893300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>289600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-314700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-901000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-755000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-286000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-562000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-366000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1419000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6184000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2547000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>140000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>797000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-172000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1535000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>967000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-673000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2487400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>666300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PUK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4776000</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>5336000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4754000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2243000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14808000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11692000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42311000</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
-        <v>14808000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11692000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>42311000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41197000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52539000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35845000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16019000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43466000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42924000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36301000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45947800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20902900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33287100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38844000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
         <v>1205000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1120000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1063000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1026000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>647000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1433000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2068000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2109000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6103000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3186000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1792000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1920000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1987000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2197800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2210800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2080500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4498200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>3571000</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="3">
+        <v>3549000</v>
+      </c>
       <c r="F10" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="G10" s="3">
         <v>13745000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10666000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41664000</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>39129000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50430000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29742000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12833000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41674000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41004000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34314000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43750000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18692100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31206600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34345800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,93 +1052,99 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-62000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>56000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>30000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>159000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>182000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>570000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-162000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-66000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>238000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>74000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>71000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>85000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>77000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>109000</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>107000</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1133,11 +1155,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3531000</v>
+        <v>4088000</v>
       </c>
       <c r="E17" s="3">
-        <v>-13382000</v>
+        <v>4019000</v>
       </c>
       <c r="F17" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="G17" s="3">
         <v>13404000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10444000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40297000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-6757000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40471000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51224000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32167000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14313000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41957000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41014000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34595000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44982000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19189000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30714100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>37257300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1245000</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>1248000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>735000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1293000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
-        <v>1404000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1248000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2014000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>726000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1315000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3678000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1706000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1509000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1910000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1706000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>965700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1713900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2573000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1586700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>-73000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>173000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>384000</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>173000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>179000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>384000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>260000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>137000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>319000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>82000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>182000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>120000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>96000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>111200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>151300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>205400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1261000</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>1391000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>804000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1173000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2366000</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>1514000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1512000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2366000</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3">
+        <v>999000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>999000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1559000</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1822000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1687000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2090000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1811000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1173900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1889900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2745500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1792200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>97000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>103000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>164000</v>
       </c>
       <c r="G22" s="3">
         <v>164000</v>
       </c>
       <c r="H22" s="3">
+        <v>164000</v>
+      </c>
+      <c r="I22" s="3">
         <v>153000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>163000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>223000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>293000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>547000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>189000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>216000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>191000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>218500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>213900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>194900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>225200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1161000</v>
+        <v>1175000</v>
       </c>
       <c r="E23" s="3">
-        <v>300000</v>
+        <v>704000</v>
       </c>
       <c r="F23" s="3">
+        <v>-1347000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1413000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1263000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2245000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>663000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>763000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1159000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3450000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1599000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1482000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1814000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1611000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>858400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1651300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2478200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1567000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>260000</v>
+        <v>228000</v>
       </c>
       <c r="E24" s="3">
-        <v>194000</v>
+        <v>196000</v>
       </c>
       <c r="F24" s="3">
+        <v>158000</v>
+      </c>
+      <c r="G24" s="3">
         <v>269000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>193000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>311000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>569000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>326000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>152000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>309000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>377000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-29700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>584700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>901000</v>
+        <v>947000</v>
       </c>
       <c r="E26" s="3">
-        <v>106000</v>
+        <v>508000</v>
       </c>
       <c r="F26" s="3">
+        <v>-1505000</v>
+      </c>
+      <c r="G26" s="3">
         <v>1144000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1070000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1934000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>534000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>795000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1158000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2881000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1273000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1330000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1505000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>888200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1488200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1893500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>894000</v>
+        <v>944000</v>
       </c>
       <c r="E27" s="3">
-        <v>104000</v>
+        <v>501000</v>
       </c>
       <c r="F27" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="G27" s="3">
         <v>495000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1697000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1946000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>512000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>792000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1152000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2877000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1272000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1329000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1505000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>888200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1488200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1893500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,46 +1862,49 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1473000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5707000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-340000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1996000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1480000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1142000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>83000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-445000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="E32" s="3" t="s">
+        <v>73000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>-173000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-179000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-384000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-260000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-137000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-319000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-82000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-182000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-120000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-111200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-151300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-205400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>894000</v>
+        <v>944000</v>
       </c>
       <c r="E33" s="3">
-        <v>104000</v>
+        <v>501000</v>
       </c>
       <c r="F33" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="G33" s="3">
         <v>1968000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4010000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1606000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>512000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1204000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2632000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4019000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1355000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>884000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1505000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>888200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1488200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1893500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>894000</v>
+        <v>944000</v>
       </c>
       <c r="E35" s="3">
-        <v>104000</v>
+        <v>501000</v>
       </c>
       <c r="F35" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="G35" s="3">
         <v>1968000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4010000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1606000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>512000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1204000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2632000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4019000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1355000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>884000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1505000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>888200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1488200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1893500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4765000</v>
+        <v>5920000</v>
       </c>
       <c r="E41" s="3">
+        <v>10279000</v>
+      </c>
+      <c r="F41" s="3">
         <v>5647000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6259000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5295000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7431000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7785000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6609000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6119000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27051000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8312000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20400000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19024000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9843000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11027700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9676700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10926700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8439300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,64 +2503,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1540000</v>
+        <v>1035000</v>
       </c>
       <c r="E43" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1904000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1613000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1954000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3171000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2729000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2054000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2159000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7990000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3120000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5681000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6610000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2872000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4531300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2549900</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121872000</v>
+        <v>149838000</v>
       </c>
       <c r="E47" s="3">
+        <v>179110000</v>
+      </c>
+      <c r="F47" s="3">
         <v>122176000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>170201000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>161057000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400592000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>377884000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>379715000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>639141000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>913733000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>404637000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>802481000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>796888000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>388381000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>476271200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>424114700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>434640800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>427702600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>456000</v>
+        <v>434000</v>
       </c>
       <c r="E48" s="3">
+        <v>474000</v>
+      </c>
+      <c r="F48" s="3">
         <v>440000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>516000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>564000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>916000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>987000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1090000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1798000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24624000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18556000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33101000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30513000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15389000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19591200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19067700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18755000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18095300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>935000</v>
+        <v>4565000</v>
       </c>
       <c r="E49" s="3">
+        <v>4774000</v>
+      </c>
+      <c r="F49" s="3">
         <v>909000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>956000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1031000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1008000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1036000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>723000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4193000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1627000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1615000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1680000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2226200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2214700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2166100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2171400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310000</v>
+        <v>168000</v>
       </c>
       <c r="E52" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F52" s="3">
         <v>378000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>266000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>336048000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4858000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4259000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4075000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>284138000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29949000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14459000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5330000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8276000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6027000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4914000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3678200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3713300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4726000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165942000</v>
+        <v>165458000</v>
       </c>
       <c r="E54" s="3">
+        <v>160249000</v>
+      </c>
+      <c r="F54" s="3">
         <v>166888000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>199102000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>525121000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>516097000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>463165000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>454214000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>705945000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>647810000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>501170000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>493941000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>481130000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>470498000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>567962500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>504748400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>497616300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>486164100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,40 +3316,43 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E58" s="3">
         <v>501000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>544000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500000</v>
       </c>
       <c r="G58" s="3">
         <v>500000</v>
       </c>
       <c r="H58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="I58" s="3">
         <v>501000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>506000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>549000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>841000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>716000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3230,8 +3363,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139209000</v>
+        <v>141586000</v>
       </c>
       <c r="E59" s="3">
+        <v>269414000</v>
+      </c>
+      <c r="F59" s="3">
         <v>141801000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171008000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>165465000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>477515000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>429139000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>419599000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>393980000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>830364000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>453226000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>816205000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>866408000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>369166000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>507721400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>399974500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>448806800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>360479200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4222000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4575000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4576000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6488000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6799000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8576000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8223000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7669000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11004000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15334000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11570000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11787000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12046000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10452000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13166000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10829700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11157200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10086600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2872000</v>
+        <v>1214000</v>
       </c>
       <c r="E62" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2699000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2862000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>335495000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6075000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5278000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>277443000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33150000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16420000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9392000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11366000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6761000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6938500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5195100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5695100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5650300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>148982000</v>
+        <v>148299000</v>
       </c>
       <c r="E66" s="3">
+        <v>143518000</v>
+      </c>
+      <c r="F66" s="3">
         <v>150779000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>182014000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>509408000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>495219000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>444055000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>434737000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>680908000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>625842000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>485288000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>477854000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>465681000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>455832000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>549081000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>487851100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>481677800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>470611500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>10810000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9997000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10216000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10180000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14424000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13420000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13575000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22597000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21817000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12954000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12326000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11700000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10942000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13160800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13611800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12624100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11572000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16960000</v>
+        <v>17159000</v>
       </c>
       <c r="E76" s="3">
+        <v>16731000</v>
+      </c>
+      <c r="F76" s="3">
         <v>16109000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17088000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15713000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20878000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19110000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19477000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25037000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21968000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15882000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16087000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15449000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14666000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18881500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16897300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15938400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15552600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>894000</v>
+        <v>944000</v>
       </c>
       <c r="E81" s="3">
-        <v>104000</v>
+        <v>501000</v>
       </c>
       <c r="F81" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="G81" s="3">
         <v>1968000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4010000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1606000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>512000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1204000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2632000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4019000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1355000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>884000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1505000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>888200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1488200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1893500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1410300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,8 +4608,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,8 +4665,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-638000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1716000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2111000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>768000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>325000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2109000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5016000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-746000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2745000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>980000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1530000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>90000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1398000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1038100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>174800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3159000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1638100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-43000</v>
       </c>
       <c r="J91" s="3">
         <v>-43000</v>
       </c>
       <c r="K91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-316000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-41400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-216500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E94" s="3">
         <v>25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>66000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-792000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-417000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-776000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-236000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-431000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-191000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>757000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-431800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-538700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-154000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-320000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-138000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-283000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-140000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-674000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-764000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-870000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1244000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-840000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-373000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-786000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-332000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1208800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-410900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-867800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-375300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-879000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-293000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2227000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1760000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-495000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>67000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>145000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1183000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1274000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>214000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-680000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-715000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-987000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>41000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-532600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-598700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-283100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1173300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-180000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-43000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>129000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-59000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>193000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>304000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-77000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>311000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>893300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>289600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-314700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-901000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-755000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-286000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-562000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-366000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1419000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6184000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2293000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2547000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>140000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>797000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-172000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>967000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-673000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2487400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>666300</v>
       </c>
     </row>
